--- a/data/metadata/experiment_metadata.xlsx
+++ b/data/metadata/experiment_metadata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ashuffmyer/MyProjects/oysters/manchester-hardening/data/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E1C6B04-7EDD-3B41-8D07-3C7A905AAB8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24824606-BECA-244B-AF1F-4D4F50C847F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1500" yWindow="1320" windowWidth="27640" windowHeight="16940" xr2:uid="{910C5C9C-1199-2F4F-A6BD-E003E55895D4}"/>
+    <workbookView xWindow="15940" yWindow="760" windowWidth="14060" windowHeight="17600" xr2:uid="{910C5C9C-1199-2F4F-A6BD-E003E55895D4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="22">
   <si>
     <t>tank</t>
   </si>
@@ -87,6 +87,21 @@
   </si>
   <si>
     <t>YC24-099</t>
+  </si>
+  <si>
+    <t>field_tag</t>
+  </si>
+  <si>
+    <t>R008</t>
+  </si>
+  <si>
+    <t>G058</t>
+  </si>
+  <si>
+    <t>R013</t>
+  </si>
+  <si>
+    <t>B028</t>
   </si>
 </sst>
 </file>
@@ -458,10 +473,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{026AE326-2012-A844-AB6A-692D667495E5}">
-  <dimension ref="A1:E41"/>
+  <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -469,7 +484,7 @@
     <col min="3" max="3" width="16.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -485,16 +500,19 @@
       <c r="E1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -502,27 +520,33 @@
       <c r="E2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C3">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="D3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
@@ -531,38 +555,44 @@
         <v>17</v>
       </c>
       <c r="D4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="F4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C5">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="F5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C6">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -570,67 +600,79 @@
       <c r="E6" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C7">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="D7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E7" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>58</v>
+        <v>79</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C8">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="D8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="F8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>59</v>
+        <v>86</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C9">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="D9">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="F9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>52</v>
+        <v>87</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C10">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -638,27 +680,33 @@
       <c r="E10" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11">
+        <v>90</v>
+      </c>
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11">
+        <v>38</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11" t="s">
+        <v>2</v>
+      </c>
+      <c r="F11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12">
         <v>53</v>
-      </c>
-      <c r="B11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11">
-        <v>18</v>
-      </c>
-      <c r="D11">
-        <v>2</v>
-      </c>
-      <c r="E11" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>55</v>
       </c>
       <c r="B12" t="s">
         <v>9</v>
@@ -667,276 +715,324 @@
         <v>18</v>
       </c>
       <c r="D12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E12" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="F12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C13">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="D13">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E13" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="F13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B14" t="s">
         <v>10</v>
       </c>
       <c r="C14">
+        <v>19</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
+      <c r="E14" t="s">
+        <v>2</v>
+      </c>
+      <c r="F14" t="s">
         <v>20</v>
       </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
-      <c r="E14" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15">
+        <v>17</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
+      <c r="E15" t="s">
+        <v>2</v>
+      </c>
+      <c r="F15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>67</v>
+      </c>
+      <c r="B16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16">
+        <v>28</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
+      <c r="E16" t="s">
+        <v>2</v>
+      </c>
+      <c r="F16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>72</v>
+      </c>
+      <c r="B17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17">
+        <v>14</v>
+      </c>
+      <c r="D17">
+        <v>2</v>
+      </c>
+      <c r="E17" t="s">
+        <v>2</v>
+      </c>
+      <c r="F17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>78</v>
+      </c>
+      <c r="B18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18">
         <v>10</v>
       </c>
-      <c r="C15">
-        <v>19</v>
-      </c>
-      <c r="D15">
-        <v>2</v>
-      </c>
-      <c r="E15" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>75</v>
-      </c>
-      <c r="B16" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16">
+      <c r="D18">
+        <v>2</v>
+      </c>
+      <c r="E18" t="s">
+        <v>2</v>
+      </c>
+      <c r="F18" t="s">
         <v>20</v>
       </c>
-      <c r="D16">
-        <v>3</v>
-      </c>
-      <c r="E16" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>74</v>
-      </c>
-      <c r="B17" t="s">
-        <v>10</v>
-      </c>
-      <c r="C17">
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>82</v>
+      </c>
+      <c r="B19" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19">
+        <v>38</v>
+      </c>
+      <c r="D19">
+        <v>2</v>
+      </c>
+      <c r="E19" t="s">
+        <v>2</v>
+      </c>
+      <c r="F19" t="s">
         <v>20</v>
       </c>
-      <c r="D17">
-        <v>4</v>
-      </c>
-      <c r="E17" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>73</v>
-      </c>
-      <c r="B18" t="s">
-        <v>11</v>
-      </c>
-      <c r="C18">
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>85</v>
+      </c>
+      <c r="B20" t="s">
         <v>14</v>
       </c>
-      <c r="D18">
-        <v>1</v>
-      </c>
-      <c r="E18" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>72</v>
-      </c>
-      <c r="B19" t="s">
-        <v>11</v>
-      </c>
-      <c r="C19">
-        <v>14</v>
-      </c>
-      <c r="D19">
-        <v>2</v>
-      </c>
-      <c r="E19" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>66</v>
-      </c>
-      <c r="B20" t="s">
-        <v>11</v>
-      </c>
       <c r="C20">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E20" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="F20" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="B21" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C21">
         <v>14</v>
       </c>
       <c r="D21">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E21" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="F21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="B22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22">
+        <v>18</v>
+      </c>
+      <c r="D22">
+        <v>3</v>
+      </c>
+      <c r="E22" t="s">
+        <v>3</v>
+      </c>
+      <c r="F22" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>58</v>
+      </c>
+      <c r="B23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23">
+        <v>45</v>
+      </c>
+      <c r="D23">
+        <v>3</v>
+      </c>
+      <c r="E23" t="s">
+        <v>3</v>
+      </c>
+      <c r="F23" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>66</v>
+      </c>
+      <c r="B24" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24">
+        <v>14</v>
+      </c>
+      <c r="D24">
+        <v>3</v>
+      </c>
+      <c r="E24" t="s">
+        <v>3</v>
+      </c>
+      <c r="F24" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>68</v>
+      </c>
+      <c r="B25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25">
+        <v>17</v>
+      </c>
+      <c r="D25">
+        <v>3</v>
+      </c>
+      <c r="E25" t="s">
+        <v>3</v>
+      </c>
+      <c r="F25" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>70</v>
+      </c>
+      <c r="B26" t="s">
         <v>12</v>
       </c>
-      <c r="C22">
+      <c r="C26">
         <v>28</v>
       </c>
-      <c r="D22">
-        <v>1</v>
-      </c>
-      <c r="E22" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23">
-        <v>67</v>
-      </c>
-      <c r="B23" t="s">
-        <v>12</v>
-      </c>
-      <c r="C23">
-        <v>28</v>
-      </c>
-      <c r="D23">
-        <v>2</v>
-      </c>
-      <c r="E23" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24">
-        <v>70</v>
-      </c>
-      <c r="B24" t="s">
-        <v>12</v>
-      </c>
-      <c r="C24">
-        <v>28</v>
-      </c>
-      <c r="D24">
-        <v>3</v>
-      </c>
-      <c r="E24" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25">
-        <v>69</v>
-      </c>
-      <c r="B25" t="s">
-        <v>12</v>
-      </c>
-      <c r="C25">
-        <v>28</v>
-      </c>
-      <c r="D25">
-        <v>4</v>
-      </c>
-      <c r="E25" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26">
-        <v>87</v>
-      </c>
-      <c r="B26" t="s">
-        <v>13</v>
-      </c>
-      <c r="C26">
-        <v>14</v>
-      </c>
       <c r="D26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E26" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="F26" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="B27" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C27">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D27">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E27" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="F27" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="B28" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C28">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D28">
         <v>3</v>
@@ -944,27 +1040,33 @@
       <c r="E28" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F28" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="B29" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C29">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="D29">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E29" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F29" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B30" t="s">
         <v>14</v>
@@ -973,55 +1075,64 @@
         <v>16</v>
       </c>
       <c r="D30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E30" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="F30" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="B31" t="s">
+        <v>13</v>
+      </c>
+      <c r="C31">
         <v>14</v>
       </c>
-      <c r="C31">
-        <v>16</v>
-      </c>
       <c r="D31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E31" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="F31" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="B32" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C32">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D32">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E32" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F32" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="B33" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C33">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="D33">
         <v>4</v>
@@ -1029,67 +1140,79 @@
       <c r="E33" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F33" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34">
-        <v>90</v>
+        <v>63</v>
       </c>
       <c r="B34" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C34">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="D34">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E34" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="F34" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="B35" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C35">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="D35">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E35" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="F35" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="B36" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C36">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="D36">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E36" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F36" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="B37" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C37">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="D37">
         <v>4</v>
@@ -1097,10 +1220,13 @@
       <c r="E37" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F37" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B38" t="s">
         <v>16</v>
@@ -1109,55 +1235,64 @@
         <v>10</v>
       </c>
       <c r="D38">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E38" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="F38" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B39" t="s">
+        <v>15</v>
+      </c>
+      <c r="C39">
+        <v>38</v>
+      </c>
+      <c r="D39">
+        <v>4</v>
+      </c>
+      <c r="E39" t="s">
+        <v>3</v>
+      </c>
+      <c r="F39" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>83</v>
+      </c>
+      <c r="B40" t="s">
+        <v>14</v>
+      </c>
+      <c r="C40">
         <v>16</v>
       </c>
-      <c r="C39">
-        <v>10</v>
-      </c>
-      <c r="D39">
-        <v>2</v>
-      </c>
-      <c r="E39" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A40">
-        <v>77</v>
-      </c>
-      <c r="B40" t="s">
-        <v>16</v>
-      </c>
-      <c r="C40">
-        <v>10</v>
-      </c>
       <c r="D40">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E40" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F40" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="B41" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C41">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D41">
         <v>4</v>
@@ -1165,8 +1300,15 @@
       <c r="E41" t="s">
         <v>3</v>
       </c>
+      <c r="F41" t="s">
+        <v>19</v>
+      </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F41">
+    <sortCondition ref="D2:D41"/>
+    <sortCondition ref="A2:A41"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/metadata/experiment_metadata.xlsx
+++ b/data/metadata/experiment_metadata.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10817"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ashuffmyer/MyProjects/oysters/manchester-hardening/data/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24824606-BECA-244B-AF1F-4D4F50C847F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4866CB6D-B8D4-F24A-B48C-4F797B42BC9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="15940" yWindow="760" windowWidth="14060" windowHeight="17600" xr2:uid="{910C5C9C-1199-2F4F-A6BD-E003E55895D4}"/>
   </bookViews>
@@ -59,9 +59,6 @@
     <t>YC24-158</t>
   </si>
   <si>
-    <t>oyster-count</t>
-  </si>
-  <si>
     <t>YC24-153</t>
   </si>
   <si>
@@ -89,9 +86,6 @@
     <t>YC24-099</t>
   </si>
   <si>
-    <t>field_tag</t>
-  </si>
-  <si>
     <t>R008</t>
   </si>
   <si>
@@ -102,6 +96,12 @@
   </si>
   <si>
     <t>B028</t>
+  </si>
+  <si>
+    <t>cage</t>
+  </si>
+  <si>
+    <t>starting_oysters</t>
   </si>
 </sst>
 </file>
@@ -476,7 +476,7 @@
   <dimension ref="A1:F41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -492,7 +492,7 @@
         <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
@@ -501,7 +501,7 @@
         <v>1</v>
       </c>
       <c r="F1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -509,7 +509,7 @@
         <v>52</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C2">
         <v>18</v>
@@ -521,7 +521,7 @@
         <v>2</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -529,7 +529,7 @@
         <v>56</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3">
         <v>45</v>
@@ -541,7 +541,7 @@
         <v>2</v>
       </c>
       <c r="F3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -561,7 +561,7 @@
         <v>2</v>
       </c>
       <c r="F4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -569,7 +569,7 @@
         <v>62</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C5">
         <v>20</v>
@@ -581,7 +581,7 @@
         <v>2</v>
       </c>
       <c r="F5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -589,7 +589,7 @@
         <v>65</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C6">
         <v>28</v>
@@ -601,7 +601,7 @@
         <v>2</v>
       </c>
       <c r="F6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -609,7 +609,7 @@
         <v>73</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C7">
         <v>14</v>
@@ -621,7 +621,7 @@
         <v>2</v>
       </c>
       <c r="F7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -629,7 +629,7 @@
         <v>79</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C8">
         <v>10</v>
@@ -641,7 +641,7 @@
         <v>2</v>
       </c>
       <c r="F8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -649,7 +649,7 @@
         <v>86</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C9">
         <v>16</v>
@@ -661,7 +661,7 @@
         <v>2</v>
       </c>
       <c r="F9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -669,7 +669,7 @@
         <v>87</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C10">
         <v>14</v>
@@ -681,7 +681,7 @@
         <v>2</v>
       </c>
       <c r="F10" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -689,7 +689,7 @@
         <v>90</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C11">
         <v>38</v>
@@ -701,7 +701,7 @@
         <v>2</v>
       </c>
       <c r="F11" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
@@ -709,7 +709,7 @@
         <v>53</v>
       </c>
       <c r="B12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C12">
         <v>18</v>
@@ -721,7 +721,7 @@
         <v>2</v>
       </c>
       <c r="F12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -729,7 +729,7 @@
         <v>57</v>
       </c>
       <c r="B13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C13">
         <v>45</v>
@@ -741,7 +741,7 @@
         <v>2</v>
       </c>
       <c r="F13" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
@@ -749,7 +749,7 @@
         <v>61</v>
       </c>
       <c r="B14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C14">
         <v>19</v>
@@ -761,7 +761,7 @@
         <v>2</v>
       </c>
       <c r="F14" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
@@ -781,7 +781,7 @@
         <v>2</v>
       </c>
       <c r="F15" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
@@ -789,7 +789,7 @@
         <v>67</v>
       </c>
       <c r="B16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C16">
         <v>28</v>
@@ -801,7 +801,7 @@
         <v>2</v>
       </c>
       <c r="F16" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
@@ -809,7 +809,7 @@
         <v>72</v>
       </c>
       <c r="B17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C17">
         <v>14</v>
@@ -821,7 +821,7 @@
         <v>2</v>
       </c>
       <c r="F17" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
@@ -829,7 +829,7 @@
         <v>78</v>
       </c>
       <c r="B18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C18">
         <v>10</v>
@@ -841,7 +841,7 @@
         <v>2</v>
       </c>
       <c r="F18" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
@@ -849,7 +849,7 @@
         <v>82</v>
       </c>
       <c r="B19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C19">
         <v>38</v>
@@ -861,7 +861,7 @@
         <v>2</v>
       </c>
       <c r="F19" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
@@ -869,7 +869,7 @@
         <v>85</v>
       </c>
       <c r="B20" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C20">
         <v>16</v>
@@ -881,7 +881,7 @@
         <v>2</v>
       </c>
       <c r="F20" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
@@ -889,7 +889,7 @@
         <v>88</v>
       </c>
       <c r="B21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C21">
         <v>14</v>
@@ -901,7 +901,7 @@
         <v>2</v>
       </c>
       <c r="F21" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
@@ -909,7 +909,7 @@
         <v>55</v>
       </c>
       <c r="B22" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C22">
         <v>18</v>
@@ -921,7 +921,7 @@
         <v>3</v>
       </c>
       <c r="F22" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
@@ -929,7 +929,7 @@
         <v>58</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C23">
         <v>45</v>
@@ -941,7 +941,7 @@
         <v>3</v>
       </c>
       <c r="F23" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
@@ -949,7 +949,7 @@
         <v>66</v>
       </c>
       <c r="B24" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C24">
         <v>14</v>
@@ -961,7 +961,7 @@
         <v>3</v>
       </c>
       <c r="F24" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
@@ -981,7 +981,7 @@
         <v>3</v>
       </c>
       <c r="F25" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
@@ -989,7 +989,7 @@
         <v>70</v>
       </c>
       <c r="B26" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C26">
         <v>28</v>
@@ -1001,7 +1001,7 @@
         <v>3</v>
       </c>
       <c r="F26" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
@@ -1009,7 +1009,7 @@
         <v>75</v>
       </c>
       <c r="B27" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C27">
         <v>20</v>
@@ -1021,7 +1021,7 @@
         <v>3</v>
       </c>
       <c r="F27" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
@@ -1029,7 +1029,7 @@
         <v>77</v>
       </c>
       <c r="B28" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C28">
         <v>10</v>
@@ -1041,7 +1041,7 @@
         <v>3</v>
       </c>
       <c r="F28" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
@@ -1049,7 +1049,7 @@
         <v>81</v>
       </c>
       <c r="B29" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C29">
         <v>38</v>
@@ -1061,7 +1061,7 @@
         <v>3</v>
       </c>
       <c r="F29" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
@@ -1069,7 +1069,7 @@
         <v>84</v>
       </c>
       <c r="B30" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C30">
         <v>16</v>
@@ -1081,7 +1081,7 @@
         <v>3</v>
       </c>
       <c r="F30" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
@@ -1089,7 +1089,7 @@
         <v>92</v>
       </c>
       <c r="B31" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C31">
         <v>14</v>
@@ -1101,7 +1101,7 @@
         <v>3</v>
       </c>
       <c r="F31" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
@@ -1109,7 +1109,7 @@
         <v>54</v>
       </c>
       <c r="B32" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C32">
         <v>18</v>
@@ -1121,7 +1121,7 @@
         <v>3</v>
       </c>
       <c r="F32" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
@@ -1129,7 +1129,7 @@
         <v>59</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C33">
         <v>45</v>
@@ -1141,7 +1141,7 @@
         <v>3</v>
       </c>
       <c r="F33" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
@@ -1161,7 +1161,7 @@
         <v>3</v>
       </c>
       <c r="F34" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
@@ -1169,7 +1169,7 @@
         <v>69</v>
       </c>
       <c r="B35" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C35">
         <v>28</v>
@@ -1181,7 +1181,7 @@
         <v>3</v>
       </c>
       <c r="F35" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
@@ -1189,7 +1189,7 @@
         <v>71</v>
       </c>
       <c r="B36" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C36">
         <v>14</v>
@@ -1201,7 +1201,7 @@
         <v>3</v>
       </c>
       <c r="F36" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
@@ -1209,7 +1209,7 @@
         <v>74</v>
       </c>
       <c r="B37" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C37">
         <v>20</v>
@@ -1221,7 +1221,7 @@
         <v>3</v>
       </c>
       <c r="F37" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
@@ -1229,7 +1229,7 @@
         <v>76</v>
       </c>
       <c r="B38" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C38">
         <v>10</v>
@@ -1241,7 +1241,7 @@
         <v>3</v>
       </c>
       <c r="F38" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
@@ -1249,7 +1249,7 @@
         <v>80</v>
       </c>
       <c r="B39" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C39">
         <v>38</v>
@@ -1261,7 +1261,7 @@
         <v>3</v>
       </c>
       <c r="F39" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
@@ -1269,7 +1269,7 @@
         <v>83</v>
       </c>
       <c r="B40" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C40">
         <v>16</v>
@@ -1281,7 +1281,7 @@
         <v>3</v>
       </c>
       <c r="F40" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
@@ -1289,7 +1289,7 @@
         <v>91</v>
       </c>
       <c r="B41" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C41">
         <v>14</v>
@@ -1301,7 +1301,7 @@
         <v>3</v>
       </c>
       <c r="F41" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
